--- a/data/financial_statements/soci/JPM.xlsx
+++ b/data/financial_statements/soci/JPM.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2124 +581,2169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>47409000000</v>
+      </c>
+      <c r="C2">
         <v>40809000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>34233000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>32341000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30675000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31047000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31832000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>33648000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>30627000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>30942000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>35334000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>33008000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>34320000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>36184000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>35952000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>36059000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>31909000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>32791000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>32834000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>32290000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>28022000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>29467000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>29173000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>27917000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>26990000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>27140000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>26846000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>25411000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>24815000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>24595000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>25642000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>25954000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>24639000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>26288000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>26741000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>25341000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>26176000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>25408000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>27579000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>27554000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.5455</v>
+      </c>
+      <c r="C3">
         <v>0.3144</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.07539999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.0388</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0016</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0034</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.09909999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0194</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.1076</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.1449</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0172</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.08459999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0756</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1035</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.095</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1167</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1387</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1128</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1255</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1566</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0382</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0857</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0867</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.09859999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0876</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1035</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.047</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0209</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0071</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0644</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0411</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0242</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0587</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0346</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0304</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0803</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0046</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.08599999999999999</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0973</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0527</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>12862000000</v>
+      </c>
+      <c r="C4">
         <v>8093000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3518000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1624000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1418000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1400000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1353000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1382000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1292000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1687000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2259000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4722000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5761000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6893000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>7205000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6936000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6046000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5531000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>5081000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4383000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3565000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3889000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3442000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2978000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2713000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2467000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2466000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2172000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1930000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1815000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1830000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1888000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1889000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1819000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2063000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2126000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2259000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2291000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2368000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2432000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>34547000000</v>
+      </c>
+      <c r="C5">
         <v>32716000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30715000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>30717000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>29257000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>29647000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30479000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>32266000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>29335000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>29255000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>33075000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>28286000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>28559000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>29291000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>28747000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>29123000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>25863000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>27260000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>27753000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>27907000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>24457000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>25578000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>25731000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>24939000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>24277000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>24673000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>24380000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>23239000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>22885000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>22780000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>23812000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>24066000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>22750000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>24469000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>24678000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>23215000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>23917000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>23117000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>25211000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>25122000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>21310000000</v>
+      </c>
+      <c r="C6">
         <v>20715000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>19850000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20654000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>16600000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15536000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15382000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14569000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14159000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17486000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>27415000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25076000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>17673000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>17886000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>17405000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>17890000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>17022000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>16571000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>17181000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>17245000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>16203000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>16022000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>15982000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>16598000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>15598000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>15734000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>15040000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>15661000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>15514000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>16050000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>15435000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>15842000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>16249000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>16555000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>16123000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>15486000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>16100000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>22943000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>15761000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>15888000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>13237000000</v>
+      </c>
+      <c r="C7">
         <v>12001000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10865000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10063000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12657000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14111000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>15097000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>17697000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>15176000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11769000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5660000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3210000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10886000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>11405000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>11342000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>11233000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8841000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10689000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>10572000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>10662000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8254000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>9556000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>9749000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>8341000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8679000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8939000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>9340000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7578000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>7371000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>6730000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>8377000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>8224000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>6501000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>7914000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>8555000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>7729000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>7817000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>34000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>9298000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>9082000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>47000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>73000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>119000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>137000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>76000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>185000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>276000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>524000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>118000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>197000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>13237000000</v>
+      </c>
+      <c r="C9">
         <v>12001000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10865000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10063000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12657000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14111000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>15097000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17697000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>15176000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11769000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5660000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3210000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10886000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11405000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11342000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>11233000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8841000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>10689000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>10572000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>10662000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>8254000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>9556000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>9749000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8341000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>8679000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>8939000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>9340000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7578000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>7371000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6730000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>8377000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>8224000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>6501000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7914000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>8555000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>7729000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>8261000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>34000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>9298000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>9082000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2229000000</v>
+      </c>
+      <c r="C10">
         <v>2264000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2216000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1781000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2258000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2424000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3149000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3397000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3040000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2326000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>973000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>345000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2366000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2325000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1690000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2054000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1775000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2309000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2256000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1950000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4022000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2824000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2720000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1893000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1952000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2653000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3140000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2058000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1937000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-74000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2087000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>2310000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1570000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2349000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2575000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2460000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3020000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>414000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2802000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2553000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>11008000000</v>
+      </c>
+      <c r="C11">
         <v>9737000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>8649000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>8282000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10399000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11687000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>11948000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>14300000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12136000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>9443000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4687000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2865000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>8520000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>9080000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>9652000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>9179000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7066000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>8380000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>8316000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>8712000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4232000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>6732000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>7029000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>6448000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>6727000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>6286000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>6200000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>5520000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>5434000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>6804000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>6290000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>5914000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4931000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>5565000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>5980000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>5269000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>5241000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-380000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>6496000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>6529000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>410000000</v>
+      </c>
+      <c r="C12">
         <v>482000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>454000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>437000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>472000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>458000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>452000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>449000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>437000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>428000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>422000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>434000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>429000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>474000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>460000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>426000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>423000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>432000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>436000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>474000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>457000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>470000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>474000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>473000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>479000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>474000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>472000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>474000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>281000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>534000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>514000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>462000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>443000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>437000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>412000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>376000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>266000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>270000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>395000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>398000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>10598000000</v>
+      </c>
+      <c r="C13">
         <v>9255000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8195000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7845000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9927000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>11229000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11496000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>13851000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11699000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9015000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4265000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2431000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>8091000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>8606000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9192000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>8753000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6643000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7948000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>7880000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>8238000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>3775000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>6262000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>6555000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5975000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>6248000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>5812000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>5728000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>5046000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5153000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6270000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>5776000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>5452000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>4488000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>5128000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>5568000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>4893000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>4975000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-650000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>6101000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>6131000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>3.13</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2.77</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.64</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3.33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.74</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.79</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.51</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.8</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.93</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.39</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.79</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.58</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.69</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.83</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.65</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.99</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.35</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2.31</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.38</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.08</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1.77</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.83</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1.66</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.73</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1.6</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1.56</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1.36</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1.34</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1.7</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1.56</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1.46</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1.2</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1.37</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1.47</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1.29</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1.31</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-0.17</v>
-      </c>
-      <c r="AM14">
-        <v>1.61</v>
       </c>
       <c r="AN14">
         <v>1.61</v>
       </c>
+      <c r="AO14">
+        <v>1.61</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>3.12</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.76</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.63</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3.33</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.74</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.78</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.79</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.92</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.38</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.78</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2.57</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.68</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.82</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.65</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.98</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.34</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.29</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.37</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.07</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1.76</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1.82</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.65</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1.71</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1.58</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1.55</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1.35</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1.32</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1.68</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1.54</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1.45</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1.19</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1.36</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1.46</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1.28</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1.3</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-0.17</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1.6</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1.59</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>2962900000</v>
+      </c>
+      <c r="C16">
         <v>2961200000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2962200000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2977000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3021500000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2999900000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3036600000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3073500000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3082400000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3077800000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3076300000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3095800000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>3221500000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3198500000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3250600000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3298000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3396400000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3376100000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3415200000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3458300000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3551600000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3534700000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3574100000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>3601700000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3658800000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3637700000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3675500000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3710600000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3741200000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3694400000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3707800000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3725300000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>3763500000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>3755400000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>3780600000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>3787200000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>3782400000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>3767000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3782400000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3818200000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>2967100000</v>
+      </c>
+      <c r="C17">
         <v>2965400000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2966300000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2981000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3026600000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3005100000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3041900000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3078900000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3087400000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3082800000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3081000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3100700000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3230400000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>3207200000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3259700000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3308200000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3414000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3394300000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3434700000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3479500000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3576800000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3559600000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3599000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3630400000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>3690000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3669800000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3706200000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3737600000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3773600000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>3725600000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3743600000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>3757500000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>3797500000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>3788700000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3812500000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>3823600000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>3814900000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>3767000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3814300000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>3847000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0.7287</v>
+      </c>
+      <c r="C18">
         <v>0.8017</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.8972</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9498</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.9538</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.9549</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.9575</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.9589</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9578</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.9455</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.9361</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8569</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8321</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.8095</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.7996</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.8076</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.8105</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8313</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8453000000000001</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8643</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8728</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.868</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.882</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.8933</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.8995</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.9091</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.9081</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.9145</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.9222</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.9262</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.9286</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.9273</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.9233</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.9308</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.9229000000000001</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.9161</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.9137</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.9098000000000001</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.9141</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.9117</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2703,1108 +2862,1135 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2792</v>
+      </c>
+      <c r="C20">
         <v>0.2941</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3174</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3112</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.4126</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.4545</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.4743</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5259</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.4955</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.3804</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.1602</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.09719999999999999</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.3172</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.3152</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.3155</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.3115</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2771</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.326</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.322</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3302</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2946</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3243</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3342</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.2988</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.3216</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.3294</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.3479</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2982</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.297</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2736</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.3267</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.3169</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.2638</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.301</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3199</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.305</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.3156</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.0013</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.3371</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.3296</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2235</v>
+      </c>
+      <c r="C21">
         <v>0.2268</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2394</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2426</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.3236</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3617</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3611</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4116</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.382</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2914</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1207</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0736</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2358</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2378</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2557</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2427</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2082</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2424</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.24</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2551</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1347</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2125</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2247</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.214</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2315</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.2141</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2134</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1986</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2077</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2549</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2253</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2101</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1822</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1951</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2082</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1931</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1901</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-0.0256</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2212</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2225</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>11008000000</v>
+      </c>
+      <c r="C22">
         <v>9737000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>8649000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>8282000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10399000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>11687000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>11948000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>14300000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12136000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>9443000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4687000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2865000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>8520000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>9080000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>9652000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>9179000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>7066000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>8380000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>8316000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>8712000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4232000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6732000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>7029000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>6448000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>6727000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>6286000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6200000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>5520000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>5434000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>6804000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>6290000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>5914000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>4931000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>5565000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>5980000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>5269000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5241000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-380000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>6496000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>6529000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>11008000000</v>
+      </c>
+      <c r="C23">
         <v>9737000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8649000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8282000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>10399000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>11687000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>11948000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14300000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>12136000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>9443000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4687000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2865000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>8520000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9080000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9652000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9179000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7066000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8380000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8316000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8712000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>4232000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>6732000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>7029000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>6448000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>6727000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>6286000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>6200000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>5520000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>5434000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>6804000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>6290000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5914000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>4931000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>5565000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>5980000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>5269000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>5241000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-380000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>6496000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>6529000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>3.7153</v>
+      </c>
+      <c r="C24">
         <v>3.2882</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2.9198</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.782</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3.5136</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.8958</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.9347</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.6527</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.9336</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>3.0681</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1.5236</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.9254</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.7174</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.8388</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.9693</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.7832</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.125</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.4822</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2.435</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2.5192</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1.2202</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1.9045</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1.9666</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1.7903</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1.8574</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>1.728</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1.6868</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1.4876</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>1.4075</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1.8417</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1.6964</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1.5875</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1.323</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1.4819</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1.5818</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1.3913</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1.4022</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-0.1009</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1.7174</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1.71</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>3.71</v>
+      </c>
+      <c r="C25">
         <v>3.2835</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2.9158</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.7783</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3.5084</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3.8891</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.9278</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.6445</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.9271</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3.0631</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.5213</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.924</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.7108</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2.8311</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2.961</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2.7746</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.1182</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.4688</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.4212</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2.5038</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.2128</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1.8912</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1.953</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1.7761</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.8401</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1.7129</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1.6729</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1.4769</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1.3967</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1.8263</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1.6802</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1.5739</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1.3107</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1.4688</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1.5685</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1.378</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1.3891</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-0.1009</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1.7031</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1.6972</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3.7153</v>
+      </c>
+      <c r="C26">
         <v>3.2882</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.9198</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.782</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3.5136</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3.8958</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3.9347</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.6527</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.9336</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3.0681</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.5236</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.9254</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.7174</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.8388</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.9693</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.7832</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.125</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.4822</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.435</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.5192</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.2202</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1.9045</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>1.9666</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>1.7903</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.8574</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>1.728</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>1.6868</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>1.4876</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>1.4075</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>1.8417</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1.6964</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1.5875</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>1.323</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1.4819</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1.5818</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1.3913</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1.4022</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-0.1009</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>1.7174</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1.71</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3.71</v>
+      </c>
+      <c r="C27">
         <v>3.2835</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.9158</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.7783</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.5084</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.8891</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3.9278</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.6445</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3.9271</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3.0631</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.5213</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.924</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.7108</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.8311</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.961</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2.7746</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.1182</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.4688</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.4212</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2.5038</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.2128</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.8912</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.953</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>1.7761</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1.8401</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>1.7129</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>1.6729</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1.4769</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1.3967</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1.8263</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1.6802</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1.5739</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1.3107</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>1.4688</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>1.5685</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>1.378</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1.3891</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-0.1009</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>1.7031</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1.6972</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>2965400000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2966300000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2981000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2981800000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3005100000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3041900000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3078900000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3085100000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3082800000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3081000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3100700000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3148500000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3207200000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3259700000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>3308200000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3347300000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3394300000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>3434700000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>3479500000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>3512200000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3559600000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3599000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>3630400000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>3606000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>3629600000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>3666500000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3696900000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3704600000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>3725600000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>3743600000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>3757500000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>3765200000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>3788700000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>3812500000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>3823600000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>3797100000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>3767000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>3814300000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>3847000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3923,126 +4109,132 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>-0.4461</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.9285</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.2961</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2.7741</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.7514999999999999</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.425</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.3039</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.9159</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.4747</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2.3467</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-3.6382</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.4129</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.4426</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-0.3853</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-2.243</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.0579</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4022</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.0868</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-1.0873</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.448</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-0.1661</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.1396</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-0.8081</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.5042</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.1545</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-0.0568</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-0.8415</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.6515</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.0215</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.6745</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.5733</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.1667</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-0.09320000000000001</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-0.1635</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.5788</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-0.2641</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.0384</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>2.4845</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.7245</v>
       </c>
     </row>
